--- a/doc/設計.xlsx
+++ b/doc/設計.xlsx
@@ -8,10 +8,414 @@
   </bookViews>
   <sheets>
     <sheet name="画面遷移・データフロー" sheetId="2" r:id="rId1"/>
-    <sheet name="template" sheetId="4" r:id="rId2"/>
+    <sheet name="開発について" sheetId="5" r:id="rId2"/>
+    <sheet name="template" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システム開発の目的は、本システム開発者のフロントエンド・バックエンドの実装技術確認用である。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスペクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「調整さん」開発者へリスペクト。</t>
+    <rPh sb="1" eb="3">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カイハツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムは「調整さん」（https://chouseisan.com/）の模倣である。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、画面フローやDB定義等も記載している。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/8/21（金）～2020/9/3（木）</t>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記期間の毎日2～4時間を開発に充てた。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トータルでは約35時間。</t>
+    <rPh sb="6" eb="7">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本方針</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML力</t>
+    <rPh sb="4" eb="5">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UX（使いやすさ）</t>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次点として、セキュリティ要件の実装を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重点ポイントをおいたバックエンド実装技術</t>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重点ポイントをおいたフロントエンド実装技術</t>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▽</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React.jsによるフロントエンド実装</t>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定の開発期間における実装は諦めた部分</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カイハツキカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>習熟には時間不足のため。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウジュク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者が「調整さん」の主要な機能を体験できることが大事と考え、下記とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録・編集、各参加者の参加可否情報登録・編集の機能要件充足を必須とする。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュウソク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン・外見はこだわると時間がかかるのでハマらない程度に時間をかける。</t>
+    <rPh sb="5" eb="7">
+      <t>ガイケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBモデリング・DBアクセス処理</t>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発方針</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本資料は、開発対象の概要、方針、実装時間等々について記載している。</t>
+    <rPh sb="0" eb="3">
+      <t>ホンシリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるべく無駄のないコード</t>
+    <rPh sb="4" eb="6">
+      <t>ムダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,13 +481,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -134,7 +538,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>イベント作成完了</a:t>
+            <a:t>イベント編集完了</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -152,13 +556,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -169,7 +573,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="1314450"/>
+          <a:off x="2181225" y="1314450"/>
           <a:ext cx="2352675" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -225,16 +629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -243,7 +647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="3376613"/>
+          <a:off x="6677025" y="4083844"/>
           <a:ext cx="2352675" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -282,7 +686,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>イベント参加状況確認</a:t>
+            <a:t>イベント参加可否確認</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
         </a:p>
@@ -320,12 +724,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
@@ -340,8 +744,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467225" y="1862138"/>
-          <a:ext cx="1371600" cy="0"/>
+          <a:off x="4533900" y="1862138"/>
+          <a:ext cx="2143125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -374,16 +778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -395,8 +799,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7015163" y="2409825"/>
-          <a:ext cx="0" cy="966788"/>
+          <a:off x="7853363" y="2409825"/>
+          <a:ext cx="0" cy="1674019"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -436,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -450,7 +854,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1143000" y="1862138"/>
-          <a:ext cx="971550" cy="14287"/>
+          <a:ext cx="1038225" cy="14288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -484,15 +888,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -537,9 +941,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1389291" cy="275717"/>
@@ -550,7 +954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505325" y="4095750"/>
+          <a:off x="5314950" y="4781550"/>
           <a:ext cx="1389291" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,15 +1062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>110362</xdr:colOff>
+      <xdr:colOff>148657</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>79112</xdr:rowOff>
+      <xdr:rowOff>81780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11272</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161387</xdr:rowOff>
+      <xdr:colOff>49567</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,8 +1079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="478137">
-          <a:off x="2834512" y="2479412"/>
-          <a:ext cx="529560" cy="596625"/>
+          <a:off x="2872807" y="2482080"/>
+          <a:ext cx="529560" cy="729970"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -754,9 +1158,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579471" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -766,7 +1170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="3086100"/>
+          <a:off x="2428875" y="3171825"/>
           <a:ext cx="1579471" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -810,15 +1214,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>99589</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>127614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>84837</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -906,9 +1310,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579471" cy="459100"/>
@@ -969,15 +1373,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>24636</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>136262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>135096</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>47087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1065,9 +1469,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1211807" cy="459100"/>
@@ -1124,16 +1528,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1142,15 +1546,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9829800" y="1390650"/>
-          <a:ext cx="2914650" cy="1390650"/>
+          <a:off x="8534400" y="2552700"/>
+          <a:ext cx="1809750" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 37243"/>
             <a:gd name="adj2" fmla="val -2124"/>
-            <a:gd name="adj3" fmla="val 117213"/>
-            <a:gd name="adj4" fmla="val -92439"/>
+            <a:gd name="adj3" fmla="val 67213"/>
+            <a:gd name="adj4" fmla="val -38228"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1217,16 +1621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1235,8 +1639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9925050" y="4219575"/>
-          <a:ext cx="2914650" cy="1390650"/>
+          <a:off x="10077450" y="4876800"/>
+          <a:ext cx="1428750" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1310,70 +1714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114310</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2095500" y="2228850"/>
-          <a:ext cx="3714752" cy="1485910"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 126667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1382,15 +1732,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="4124325"/>
-          <a:ext cx="2914650" cy="1390650"/>
+          <a:off x="4448175" y="5724525"/>
+          <a:ext cx="1600200" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val -3168"/>
             <a:gd name="adj2" fmla="val 22059"/>
-            <a:gd name="adj3" fmla="val -26623"/>
-            <a:gd name="adj4" fmla="val 43181"/>
+            <a:gd name="adj3" fmla="val -129363"/>
+            <a:gd name="adj4" fmla="val 21612"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1457,32 +1807,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>140494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1231315">
-          <a:off x="3181350" y="4029075"/>
-          <a:ext cx="628650" cy="238125"/>
+        <a:xfrm>
+          <a:off x="2181225" y="4083844"/>
+          <a:ext cx="2352675" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1510,12 +1863,371 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>未</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>イベント編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>148657</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>49567</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フリーフォーム 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="478137">
+          <a:off x="3082357" y="5349104"/>
+          <a:ext cx="529560" cy="729970"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 628650 w 628650"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1733569"/>
+            <a:gd name="connsiteX1" fmla="*/ 523875 w 628650"/>
+            <a:gd name="connsiteY1" fmla="*/ 1733550 h 1733569"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 628650"/>
+            <a:gd name="connsiteY2" fmla="*/ 28575 h 1733569"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="628650" h="1733569">
+              <a:moveTo>
+                <a:pt x="628650" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="628650" y="864393"/>
+                <a:pt x="628650" y="1728787"/>
+                <a:pt x="523875" y="1733550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="419100" y="1738313"/>
+                <a:pt x="209550" y="883444"/>
+                <a:pt x="0" y="28575"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1579471" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="6038849"/>
+          <a:ext cx="1579471" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェックエラー時遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4533900" y="4631532"/>
+          <a:ext cx="2143125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3357563" y="2466975"/>
+          <a:ext cx="3195637" cy="1616869"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="線吹き出し 1 (枠付き) 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="6438900"/>
+          <a:ext cx="1600200" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3168"/>
+            <a:gd name="adj2" fmla="val 22059"/>
+            <a:gd name="adj3" fmla="val -189119"/>
+            <a:gd name="adj4" fmla="val -11721"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リクエスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パラ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>： イベントテーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（エンコード済）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1812,26 +2524,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L47" activeCellId="1" sqref="H8 L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
